--- a/ResultadoEleicoesDistritos/BRAGA_CABECEIRAS DE BASTO.xlsx
+++ b/ResultadoEleicoesDistritos/BRAGA_CABECEIRAS DE BASTO.xlsx
@@ -597,64 +597,64 @@
         <v>5043</v>
       </c>
       <c r="H2" t="n">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="I2" t="n">
-        <v>473</v>
+        <v>438</v>
       </c>
       <c r="J2" t="n">
-        <v>2040</v>
+        <v>2029</v>
       </c>
       <c r="K2" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L2" t="n">
-        <v>591</v>
+        <v>606</v>
       </c>
       <c r="M2" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N2" t="n">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="O2" t="n">
         <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R2" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="S2" t="n">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="T2" t="n">
-        <v>382</v>
+        <v>357</v>
       </c>
       <c r="U2" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="V2" t="n">
-        <v>3272</v>
+        <v>3251</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>3233</v>
+        <v>3284</v>
       </c>
       <c r="Y2" t="n">
         <v>5</v>
       </c>
       <c r="Z2" t="n">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AA2" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
